--- a/LINCS_PhaseOne.xlsx
+++ b/LINCS_PhaseOne.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="-19260" windowWidth="25040" windowHeight="15120" tabRatio="801"/>
+    <workbookView xWindow="-7220" yWindow="-21600" windowWidth="25520" windowHeight="15540" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="LINCS Datasets" sheetId="1" r:id="rId1"/>
@@ -1086,8 +1086,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="463">
+  <cellStyleXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1584,7 +1592,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="463">
+  <cellStyles count="471">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1816,6 +1824,10 @@
     <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2047,6 +2059,10 @@
     <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2379,8 +2395,8 @@
   <dimension ref="A1:R282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B196" sqref="B196"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
